--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\PycharmProjects\1. Work Projects\Data_transformer_refactored\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\PycharmProjects\5. Git Projects\Data_Transformer_V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56E632-EDE5-4231-8B8A-FBBA6BE8D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EA0E4D-F823-447F-A037-A4DFC5242C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,12 +52,6 @@
     <t>Internal 1</t>
   </si>
   <si>
-    <t>Project Type 1</t>
-  </si>
-  <si>
-    <t>Sector 1</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -203,6 +197,12 @@
   </si>
   <si>
     <t>NoTom Rains</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Commercial</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -623,19 +623,19 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -643,28 +643,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -672,25 +672,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,25 +698,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -747,19 +747,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -767,19 +767,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -787,19 +787,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -807,19 +807,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -827,19 +827,19 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,19 +847,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,16 +867,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -884,13 +884,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,13 +898,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -912,10 +912,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,10 +923,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -934,10 +934,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,10 +945,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
